--- a/graph_data_with_weights.xlsx
+++ b/graph_data_with_weights.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>wieght</t>
+          <t>weight</t>
         </is>
       </c>
     </row>
